--- a/Excel/Dynamic_Dashboard/Excel+Dashboard+2 (4).xlsx
+++ b/Excel/Dynamic_Dashboard/Excel+Dashboard+2 (4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_01\Excel\Dynamic_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75248ECE-9646-4786-A008-6A073495ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13CD56-19E1-4591-91CB-C092A4737993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot 1" sheetId="8" r:id="rId1"/>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>UnitsProduced</t>
-  </si>
-  <si>
-    <t>TotalCost</t>
   </si>
   <si>
     <t>Gender</t>
@@ -239,6 +236,9 @@
   <si>
     <t>Product Type</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -336,48 +336,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
@@ -828,6 +791,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -835,7 +799,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1361,6 +1324,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1368,7 +1332,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1969,6 +1932,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1976,7 +1940,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2529,6 +2492,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2536,7 +2500,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3165,6 +3128,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3172,7 +3136,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3864,6 +3827,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3871,7 +3835,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4610,6 +4573,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4617,7 +4581,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5444,6 +5407,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5451,7 +5415,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5874,6 +5837,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5881,7 +5845,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13745,7 +13708,7 @@
     <dataField name="Total Cost" fld="6" baseField="4" baseItem="2" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14818,7 +14781,7 @@
     <dataField name="Sum of TotalCost" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15521,15 +15484,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>1152805</v>
@@ -15537,7 +15500,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <v>604575</v>
@@ -15545,7 +15508,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>703282</v>
@@ -15553,7 +15516,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>910416</v>
@@ -15561,7 +15524,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5">
         <v>3371078</v>
@@ -15589,97 +15552,97 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="13">
+        <v>19</v>
+      </c>
+      <c r="B5">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="13">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="13">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="13">
+        <v>20</v>
+      </c>
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="13">
+        <v>24</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="13">
+        <v>25</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="13">
+        <v>21</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="13">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="13">
+        <v>32</v>
+      </c>
+      <c r="B14">
         <v>120</v>
       </c>
     </row>
@@ -15705,137 +15668,137 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="13">
+        <v>52</v>
+      </c>
+      <c r="B4">
         <v>11171</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="13">
+        <v>36</v>
+      </c>
+      <c r="B5">
         <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="13">
+        <v>37</v>
+      </c>
+      <c r="B6">
         <v>3103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13">
+        <v>38</v>
+      </c>
+      <c r="B7">
         <v>4803</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="13">
+        <v>39</v>
+      </c>
+      <c r="B8">
         <v>2494</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="13">
+        <v>51</v>
+      </c>
+      <c r="B9">
         <v>23556</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="13">
+        <v>40</v>
+      </c>
+      <c r="B10">
         <v>3026</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="13">
+        <v>41</v>
+      </c>
+      <c r="B11">
         <v>4127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="13">
+        <v>42</v>
+      </c>
+      <c r="B12">
         <v>3875</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>1528</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="13">
+        <v>44</v>
+      </c>
+      <c r="B14">
         <v>1684</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="13">
+        <v>45</v>
+      </c>
+      <c r="B15">
         <v>3537</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="13">
+        <v>46</v>
+      </c>
+      <c r="B16">
         <v>1536</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="13">
+        <v>47</v>
+      </c>
+      <c r="B17">
         <v>2864</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="13">
+        <v>36</v>
+      </c>
+      <c r="B18">
         <v>1379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13">
+        <v>32</v>
+      </c>
+      <c r="B19">
         <v>34727</v>
       </c>
     </row>
@@ -15862,49 +15825,49 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>140.87387695413258</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="13">
+        <v>22</v>
+      </c>
+      <c r="B5">
         <v>108.368246516667</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="13">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>180.4410334877862</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>108.97659894637712</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="13">
+        <v>32</v>
+      </c>
+      <c r="B8">
         <v>132.39235089555021</v>
       </c>
     </row>
@@ -15918,7 +15881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574C4D0-95C0-4CFE-87E6-C28A87893F6E}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="77" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="77" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -15926,7 +15889,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -16062,15 +16025,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>1152805</v>
@@ -16078,7 +16041,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7">
         <v>604575</v>
@@ -16086,7 +16049,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>703282</v>
@@ -16094,7 +16057,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7">
         <v>910416</v>
@@ -16102,7 +16065,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7">
         <v>3371078</v>
@@ -16130,7 +16093,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -16196,15 +16159,15 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>3026</v>
@@ -16212,7 +16175,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>4127</v>
@@ -16220,7 +16183,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>3875</v>
@@ -16228,7 +16191,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>1528</v>
@@ -16236,7 +16199,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>1684</v>
@@ -16244,7 +16207,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>3537</v>
@@ -16252,7 +16215,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>1536</v>
@@ -16260,7 +16223,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>2864</v>
@@ -16268,7 +16231,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>2150</v>
@@ -16276,7 +16239,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>3103</v>
@@ -16284,7 +16247,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>4803</v>
@@ -16292,7 +16255,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>2494</v>
@@ -16300,7 +16263,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>34727</v>
@@ -16326,8 +16289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16365,19 +16328,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -16388,13 +16351,13 @@
         <v>45380</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>412</v>
@@ -16403,7 +16366,7 @@
         <v>22288</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -16425,13 +16388,13 @@
         <v>45420</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3">
         <v>430</v>
@@ -16440,7 +16403,7 @@
         <v>66500</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>52</v>
@@ -16462,13 +16425,13 @@
         <v>45504</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
       <c r="F4">
         <v>478</v>
@@ -16477,7 +16440,7 @@
         <v>76076</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>36</v>
@@ -16499,13 +16462,13 @@
         <v>45214</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>459</v>
@@ -16514,7 +16477,7 @@
         <v>17069</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>57</v>
@@ -16536,13 +16499,13 @@
         <v>45449</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>178</v>
@@ -16551,7 +16514,7 @@
         <v>41349</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>26</v>
@@ -16573,13 +16536,13 @@
         <v>45350</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>401</v>
@@ -16588,7 +16551,7 @@
         <v>19691</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>26</v>
@@ -16610,13 +16573,13 @@
         <v>45472</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>68</v>
@@ -16625,7 +16588,7 @@
         <v>11696</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>28</v>
@@ -16647,13 +16610,13 @@
         <v>45299</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
       </c>
       <c r="F9">
         <v>447</v>
@@ -16662,7 +16625,7 @@
         <v>52269</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>28</v>
@@ -16684,13 +16647,13 @@
         <v>45217</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>55</v>
@@ -16699,7 +16662,7 @@
         <v>25893</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>42</v>
@@ -16721,13 +16684,13 @@
         <v>45508</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>396</v>
@@ -16736,7 +16699,7 @@
         <v>38480</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>42</v>
@@ -16758,13 +16721,13 @@
         <v>45335</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>494</v>
@@ -16773,7 +16736,7 @@
         <v>46767</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>25</v>
@@ -16795,13 +16758,13 @@
         <v>45410</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>462</v>
@@ -16810,7 +16773,7 @@
         <v>26145</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13">
         <v>25</v>
@@ -16832,13 +16795,13 @@
         <v>45472</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>435</v>
@@ -16847,7 +16810,7 @@
         <v>64090</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -16869,13 +16832,13 @@
         <v>45465</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>332</v>
@@ -16884,7 +16847,7 @@
         <v>679</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>26</v>
@@ -16906,13 +16869,13 @@
         <v>45398</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>383</v>
@@ -16921,7 +16884,7 @@
         <v>39008</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16">
         <v>42</v>
@@ -16943,13 +16906,13 @@
         <v>45318</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>193</v>
@@ -16958,7 +16921,7 @@
         <v>18796</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17">
         <v>26</v>
@@ -16980,13 +16943,13 @@
         <v>45215</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>240</v>
@@ -16995,7 +16958,7 @@
         <v>65052</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>42</v>
@@ -17017,13 +16980,13 @@
         <v>45381</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>363</v>
@@ -17032,7 +16995,7 @@
         <v>38232</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>49</v>
@@ -17054,13 +17017,13 @@
         <v>45469</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>443</v>
@@ -17069,7 +17032,7 @@
         <v>50652</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <v>49</v>
@@ -17091,13 +17054,13 @@
         <v>45254</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>331</v>
@@ -17106,7 +17069,7 @@
         <v>27140</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21">
         <v>42</v>
@@ -17128,13 +17091,13 @@
         <v>45304</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>250</v>
@@ -17143,7 +17106,7 @@
         <v>11385</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22">
         <v>42</v>
@@ -17165,13 +17128,13 @@
         <v>45294</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>180</v>
@@ -17180,7 +17143,7 @@
         <v>33684</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>49</v>
@@ -17202,13 +17165,13 @@
         <v>45520</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>90</v>
@@ -17217,7 +17180,7 @@
         <v>42328</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>28</v>
@@ -17239,13 +17202,13 @@
         <v>45296</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <v>458</v>
@@ -17254,7 +17217,7 @@
         <v>42873</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>57</v>
@@ -17276,13 +17239,13 @@
         <v>45235</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>439</v>
@@ -17291,7 +17254,7 @@
         <v>31392</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26">
         <v>26</v>
@@ -17313,13 +17276,13 @@
         <v>45530</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>406</v>
@@ -17328,7 +17291,7 @@
         <v>47880</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27">
         <v>42</v>
@@ -17350,13 +17313,13 @@
         <v>45511</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>422</v>
@@ -17365,7 +17328,7 @@
         <v>13490</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>42</v>
@@ -17387,13 +17350,13 @@
         <v>45286</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>444</v>
@@ -17402,7 +17365,7 @@
         <v>7272</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29">
         <v>57</v>
@@ -17424,13 +17387,13 @@
         <v>45339</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>499</v>
@@ -17439,7 +17402,7 @@
         <v>48316</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>42</v>
@@ -17461,13 +17424,13 @@
         <v>45200</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>290</v>
@@ -17476,7 +17439,7 @@
         <v>15132</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31">
         <v>25</v>
@@ -17498,13 +17461,13 @@
         <v>45543</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>369</v>
@@ -17513,7 +17476,7 @@
         <v>5246</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32">
         <v>42</v>
@@ -17535,13 +17498,13 @@
         <v>45371</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>389</v>
@@ -17550,7 +17513,7 @@
         <v>37744</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33">
         <v>42</v>
@@ -17572,13 +17535,13 @@
         <v>45422</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34">
         <v>511</v>
@@ -17587,7 +17550,7 @@
         <v>679</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>25</v>
@@ -17609,13 +17572,13 @@
         <v>45251</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35">
         <v>333</v>
@@ -17624,7 +17587,7 @@
         <v>48000</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <v>28</v>
@@ -17646,13 +17609,13 @@
         <v>45214</v>
       </c>
       <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
         <v>12</v>
       </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>260</v>
@@ -17661,7 +17624,7 @@
         <v>34680</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36">
         <v>52</v>
@@ -17683,13 +17646,13 @@
         <v>45230</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>460</v>
@@ -17698,7 +17661,7 @@
         <v>50274</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37">
         <v>26</v>
@@ -17720,13 +17683,13 @@
         <v>45377</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>145</v>
@@ -17735,7 +17698,7 @@
         <v>43615</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38">
         <v>49</v>
@@ -17757,13 +17720,13 @@
         <v>45467</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39">
         <v>115</v>
@@ -17772,7 +17735,7 @@
         <v>14076</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I39">
         <v>42</v>
@@ -17794,13 +17757,13 @@
         <v>45489</v>
       </c>
       <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>248</v>
@@ -17809,7 +17772,7 @@
         <v>12870</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <v>36</v>
@@ -17831,13 +17794,13 @@
         <v>45221</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>165</v>
@@ -17846,7 +17809,7 @@
         <v>679</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41">
         <v>52</v>
@@ -17868,13 +17831,13 @@
         <v>45407</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <v>51</v>
@@ -17883,7 +17846,7 @@
         <v>35280</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42">
         <v>42</v>
@@ -17905,13 +17868,13 @@
         <v>45424</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>382</v>
@@ -17920,7 +17883,7 @@
         <v>37490</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43">
         <v>42</v>
@@ -17942,13 +17905,13 @@
         <v>45252</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>354</v>
@@ -17957,7 +17920,7 @@
         <v>679</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44">
         <v>42</v>
@@ -17979,13 +17942,13 @@
         <v>45451</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>13</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
       </c>
       <c r="F45">
         <v>368</v>
@@ -17994,7 +17957,7 @@
         <v>46068</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I45">
         <v>52</v>
@@ -18016,13 +17979,13 @@
         <v>45458</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46">
         <v>79</v>
@@ -18031,7 +17994,7 @@
         <v>11078</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I46">
         <v>36</v>
@@ -18053,13 +18016,13 @@
         <v>45207</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>231</v>
@@ -18068,7 +18031,7 @@
         <v>32045</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47">
         <v>28</v>
@@ -18090,13 +18053,13 @@
         <v>45228</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>288</v>
@@ -18105,7 +18068,7 @@
         <v>33284</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I48">
         <v>57</v>
@@ -18127,13 +18090,13 @@
         <v>45191</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49">
         <v>214</v>
@@ -18142,7 +18105,7 @@
         <v>11954</v>
       </c>
       <c r="H49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49">
         <v>26</v>
@@ -18164,13 +18127,13 @@
         <v>45350</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>74</v>
@@ -18179,7 +18142,7 @@
         <v>36708</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50">
         <v>26</v>
@@ -18201,13 +18164,13 @@
         <v>45234</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51">
         <v>177</v>
@@ -18216,7 +18179,7 @@
         <v>30600</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51">
         <v>25</v>
@@ -18238,13 +18201,13 @@
         <v>45364</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>358</v>
@@ -18253,7 +18216,7 @@
         <v>13568</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I52">
         <v>57</v>
@@ -18275,13 +18238,13 @@
         <v>45350</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>343</v>
@@ -18290,7 +18253,7 @@
         <v>33344</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53">
         <v>42</v>
@@ -18312,13 +18275,13 @@
         <v>45216</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54">
         <v>63</v>
@@ -18327,7 +18290,7 @@
         <v>3960</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54">
         <v>42</v>
@@ -18349,13 +18312,13 @@
         <v>45510</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55">
         <v>429</v>
@@ -18364,7 +18327,7 @@
         <v>58208</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55">
         <v>28</v>
@@ -18386,13 +18349,13 @@
         <v>45549</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56">
         <v>491</v>
@@ -18401,7 +18364,7 @@
         <v>59458</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56">
         <v>42</v>
@@ -18423,13 +18386,13 @@
         <v>45193</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57">
         <v>344</v>
@@ -18438,7 +18401,7 @@
         <v>13872</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I57">
         <v>42</v>
@@ -18460,13 +18423,13 @@
         <v>45296</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58">
         <v>255</v>
@@ -18475,7 +18438,7 @@
         <v>57706</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58">
         <v>25</v>
@@ -18497,13 +18460,13 @@
         <v>45292</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59">
         <v>160</v>
@@ -18512,7 +18475,7 @@
         <v>59248</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I59">
         <v>42</v>
@@ -18534,13 +18497,13 @@
         <v>45453</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60">
         <v>322</v>
@@ -18549,7 +18512,7 @@
         <v>29440</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60">
         <v>25</v>
@@ -18571,13 +18534,13 @@
         <v>45372</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61">
         <v>178</v>
@@ -18586,7 +18549,7 @@
         <v>679</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I61">
         <v>25</v>
@@ -18608,13 +18571,13 @@
         <v>45286</v>
       </c>
       <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
         <v>12</v>
       </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62">
         <v>151</v>
@@ -18623,7 +18586,7 @@
         <v>8475</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I62">
         <v>52</v>
@@ -18645,13 +18608,13 @@
         <v>45350</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63">
         <v>535</v>
@@ -18660,7 +18623,7 @@
         <v>44330</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63">
         <v>57</v>
@@ -18682,13 +18645,13 @@
         <v>45510</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
         <v>9</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
       </c>
       <c r="F64">
         <v>305</v>
@@ -18697,7 +18660,7 @@
         <v>3186</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I64">
         <v>25</v>
@@ -18719,13 +18682,13 @@
         <v>45432</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65">
         <v>188</v>
@@ -18734,7 +18697,7 @@
         <v>679</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I65">
         <v>25</v>
@@ -18756,13 +18719,13 @@
         <v>45378</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66">
         <v>495</v>
@@ -18771,7 +18734,7 @@
         <v>679</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66">
         <v>42</v>
@@ -18793,13 +18756,13 @@
         <v>45390</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>190</v>
@@ -18808,7 +18771,7 @@
         <v>28050</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I67">
         <v>28</v>
@@ -18830,13 +18793,13 @@
         <v>45249</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68">
         <v>511</v>
@@ -18845,7 +18808,7 @@
         <v>16698</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I68">
         <v>26</v>
@@ -18867,13 +18830,13 @@
         <v>45350</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69">
         <v>308</v>
@@ -18882,7 +18845,7 @@
         <v>27956</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I69">
         <v>49</v>
@@ -18904,13 +18867,13 @@
         <v>45532</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70">
         <v>183</v>
@@ -18919,7 +18882,7 @@
         <v>679</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I70">
         <v>36</v>
@@ -18941,13 +18904,13 @@
         <v>45232</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71">
         <v>335</v>
@@ -18956,7 +18919,7 @@
         <v>36984</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71">
         <v>42</v>
@@ -18978,13 +18941,13 @@
         <v>45350</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72">
         <v>95</v>
@@ -18993,7 +18956,7 @@
         <v>46800</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I72">
         <v>49</v>
@@ -19015,13 +18978,13 @@
         <v>45356</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73">
         <v>218</v>
@@ -19030,7 +18993,7 @@
         <v>7125</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I73">
         <v>42</v>
@@ -19052,13 +19015,13 @@
         <v>45506</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74">
         <v>265</v>
@@ -19067,7 +19030,7 @@
         <v>12320</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I74">
         <v>42</v>
@@ -19089,13 +19052,13 @@
         <v>45197</v>
       </c>
       <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
         <v>12</v>
       </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F75">
         <v>213</v>
@@ -19104,7 +19067,7 @@
         <v>42028</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I75">
         <v>52</v>
@@ -19126,13 +19089,13 @@
         <v>45357</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76">
         <v>128</v>
@@ -19141,7 +19104,7 @@
         <v>679</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I76">
         <v>28</v>
@@ -19163,13 +19126,13 @@
         <v>45217</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F77">
         <v>208</v>
@@ -19178,7 +19141,7 @@
         <v>25758</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I77">
         <v>25</v>
@@ -19200,13 +19163,13 @@
         <v>45478</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78">
         <v>115</v>
@@ -19215,7 +19178,7 @@
         <v>34804</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I78">
         <v>42</v>
@@ -19237,13 +19200,13 @@
         <v>45469</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>465</v>
@@ -19252,7 +19215,7 @@
         <v>679</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I79">
         <v>26</v>
@@ -19274,13 +19237,13 @@
         <v>45544</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <v>519</v>
@@ -19289,7 +19252,7 @@
         <v>45312</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80">
         <v>42</v>
@@ -19311,13 +19274,13 @@
         <v>45350</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <v>380</v>
@@ -19326,7 +19289,7 @@
         <v>44525</v>
       </c>
       <c r="H81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I81">
         <v>57</v>
@@ -19348,13 +19311,13 @@
         <v>45335</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82">
         <v>32</v>
@@ -19363,7 +19326,7 @@
         <v>3132</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82">
         <v>42</v>
@@ -19385,13 +19348,13 @@
         <v>45457</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83">
         <v>130</v>
@@ -19400,7 +19363,7 @@
         <v>16740</v>
       </c>
       <c r="H83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I83">
         <v>25</v>
@@ -19422,13 +19385,13 @@
         <v>45254</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F84">
         <v>545</v>
@@ -19437,7 +19400,7 @@
         <v>65250</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I84">
         <v>26</v>
@@ -19459,13 +19422,13 @@
         <v>45369</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -19474,7 +19437,7 @@
         <v>10688</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I85">
         <v>28</v>
@@ -19496,13 +19459,13 @@
         <v>45309</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F86">
         <v>192</v>
@@ -19511,7 +19474,7 @@
         <v>18648</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I86">
         <v>42</v>
@@ -19533,13 +19496,13 @@
         <v>45307</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87">
         <v>60</v>
@@ -19548,7 +19511,7 @@
         <v>5822</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87">
         <v>28</v>
@@ -19570,13 +19533,13 @@
         <v>45330</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88">
         <v>209</v>
@@ -19585,7 +19548,7 @@
         <v>51221</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I88">
         <v>42</v>
@@ -19607,13 +19570,13 @@
         <v>45305</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89">
         <v>264</v>
@@ -19622,7 +19585,7 @@
         <v>75332</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I89">
         <v>28</v>
@@ -19644,13 +19607,13 @@
         <v>45348</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F90">
         <v>97</v>
@@ -19659,7 +19622,7 @@
         <v>679</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I90">
         <v>26</v>
@@ -19681,13 +19644,13 @@
         <v>45289</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91">
         <v>404</v>
@@ -19696,7 +19659,7 @@
         <v>13310</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I91">
         <v>26</v>
@@ -19718,13 +19681,13 @@
         <v>45444</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F92">
         <v>386</v>
@@ -19733,7 +19696,7 @@
         <v>47952</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I92">
         <v>42</v>
@@ -19755,13 +19718,13 @@
         <v>45329</v>
       </c>
       <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93">
         <v>214</v>
@@ -19770,7 +19733,7 @@
         <v>4984</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93">
         <v>25</v>
@@ -19792,13 +19755,13 @@
         <v>45277</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94">
         <v>366</v>
@@ -19807,7 +19770,7 @@
         <v>4131</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94">
         <v>28</v>
@@ -19829,13 +19792,13 @@
         <v>45427</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95">
         <v>173</v>
@@ -19844,7 +19807,7 @@
         <v>24549</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95">
         <v>25</v>
@@ -19866,13 +19829,13 @@
         <v>45521</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96">
         <v>306</v>
@@ -19881,7 +19844,7 @@
         <v>679</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I96">
         <v>42</v>
@@ -19903,13 +19866,13 @@
         <v>45347</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97">
         <v>128</v>
@@ -19918,7 +19881,7 @@
         <v>35088</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I97">
         <v>28</v>
@@ -19940,13 +19903,13 @@
         <v>45293</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F98">
         <v>368</v>
@@ -19955,7 +19918,7 @@
         <v>25254</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I98">
         <v>25</v>
@@ -19977,13 +19940,13 @@
         <v>45282</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F99">
         <v>222</v>
@@ -19992,7 +19955,7 @@
         <v>17500</v>
       </c>
       <c r="H99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99">
         <v>57</v>
@@ -20014,13 +19977,13 @@
         <v>45464</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F100">
         <v>216</v>
@@ -20029,7 +19992,7 @@
         <v>36934</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I100">
         <v>42</v>
@@ -20051,13 +20014,13 @@
         <v>45286</v>
       </c>
       <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
         <v>12</v>
       </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F101">
         <v>307</v>
@@ -20066,7 +20029,7 @@
         <v>679</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I101">
         <v>52</v>
@@ -20088,13 +20051,13 @@
         <v>45215</v>
       </c>
       <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="D102" t="s">
-        <v>9</v>
-      </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F102">
         <v>384</v>
@@ -20103,7 +20066,7 @@
         <v>40565</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I102">
         <v>25</v>
@@ -20125,13 +20088,13 @@
         <v>45497</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103">
         <v>376</v>
@@ -20140,7 +20103,7 @@
         <v>679</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I103">
         <v>26</v>
@@ -20162,13 +20125,13 @@
         <v>45274</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F104">
         <v>97</v>
@@ -20177,7 +20140,7 @@
         <v>679</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I104">
         <v>57</v>
@@ -20199,13 +20162,13 @@
         <v>45243</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F105">
         <v>359</v>
@@ -20214,7 +20177,7 @@
         <v>12753</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I105">
         <v>42</v>
@@ -20236,13 +20199,13 @@
         <v>45350</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106">
         <v>318</v>
@@ -20251,7 +20214,7 @@
         <v>16864</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I106">
         <v>42</v>
@@ -20273,13 +20236,13 @@
         <v>45392</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107">
         <v>51</v>
@@ -20288,7 +20251,7 @@
         <v>56888</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I107">
         <v>42</v>
@@ -20310,13 +20273,13 @@
         <v>45412</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F108">
         <v>236</v>
@@ -20325,7 +20288,7 @@
         <v>679</v>
       </c>
       <c r="H108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I108">
         <v>28</v>
@@ -20347,13 +20310,13 @@
         <v>45264</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109">
         <v>214</v>
@@ -20362,7 +20325,7 @@
         <v>31122</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I109">
         <v>42</v>
@@ -20384,13 +20347,13 @@
         <v>45256</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110">
         <v>86</v>
@@ -20399,7 +20362,7 @@
         <v>25853</v>
       </c>
       <c r="H110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I110">
         <v>28</v>
@@ -20421,13 +20384,13 @@
         <v>45383</v>
       </c>
       <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
         <v>12</v>
       </c>
-      <c r="D111" t="s">
-        <v>13</v>
-      </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111">
         <v>155</v>
@@ -20436,7 +20399,7 @@
         <v>11092</v>
       </c>
       <c r="H111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I111">
         <v>52</v>
@@ -20458,13 +20421,13 @@
         <v>45497</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112">
         <v>319</v>
@@ -20473,7 +20436,7 @@
         <v>4221</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I112">
         <v>26</v>
@@ -20495,13 +20458,13 @@
         <v>45527</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F113">
         <v>62</v>
@@ -20510,7 +20473,7 @@
         <v>31500</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I113">
         <v>25</v>
@@ -20532,13 +20495,13 @@
         <v>45370</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114">
         <v>81</v>
@@ -20547,7 +20510,7 @@
         <v>31414</v>
       </c>
       <c r="H114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I114">
         <v>26</v>
@@ -20569,13 +20532,13 @@
         <v>45233</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F115">
         <v>126</v>
@@ -20584,7 +20547,7 @@
         <v>40446</v>
       </c>
       <c r="H115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I115">
         <v>57</v>
@@ -20606,13 +20569,13 @@
         <v>45232</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F116">
         <v>541</v>
@@ -20621,7 +20584,7 @@
         <v>42432</v>
       </c>
       <c r="H116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I116">
         <v>26</v>
@@ -20643,13 +20606,13 @@
         <v>45240</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117">
         <v>666</v>
@@ -20658,7 +20621,7 @@
         <v>64635</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I117">
         <v>28</v>
@@ -20680,13 +20643,13 @@
         <v>45374</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F118">
         <v>527</v>
@@ -20695,7 +20658,7 @@
         <v>51168</v>
       </c>
       <c r="H118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I118">
         <v>26</v>
@@ -20717,13 +20680,13 @@
         <v>45273</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119">
         <v>289</v>
@@ -20732,7 +20695,7 @@
         <v>24948</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I119">
         <v>42</v>
@@ -20754,13 +20717,13 @@
         <v>45305</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F120">
         <v>199</v>
@@ -20769,7 +20732,7 @@
         <v>56118</v>
       </c>
       <c r="H120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I120">
         <v>57</v>
@@ -20791,13 +20754,13 @@
         <v>45361</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F121">
         <v>497</v>
@@ -20806,7 +20769,7 @@
         <v>46548</v>
       </c>
       <c r="H121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I121">
         <v>36</v>

--- a/Excel/Dynamic_Dashboard/Excel+Dashboard+2 (4).xlsx
+++ b/Excel/Dynamic_Dashboard/Excel+Dashboard+2 (4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_01\Excel\Dynamic_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13CD56-19E1-4591-91CB-C092A4737993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D322D5D-CB6D-424B-B660-63E8075423E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot 1" sheetId="8" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="56">
   <si>
     <t>ProductionID</t>
   </si>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -336,6 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,16 +653,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1152805</c:v>
+                  <c:v>800360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604575</c:v>
+                  <c:v>341435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>703282</c:v>
+                  <c:v>446302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>910416</c:v>
+                  <c:v>561014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,28 +1173,28 @@
                   <c:v>Jane Smith</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>John Doe</c:v>
+                  <c:v>Laura Black</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mike Brown</c:v>
+                  <c:v>John Doe</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Andrew Blue</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Laura Black</c:v>
+                  <c:v>Mike Brown</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Emily Davis</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Chris Green</c:v>
+                  <c:v>David White</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>David White</c:v>
+                  <c:v>Sarah Lee</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sarah Lee</c:v>
+                  <c:v>Chris Green</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1205,34 +1206,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,9 +1678,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Pivot 3'!$A$4:$A$19</c:f>
+              <c:f>'Pivot 3'!$A$4:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sep</c:v>
@@ -1694,30 +1695,21 @@
                     <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Jan</c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Feb</c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Mar</c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Apr</c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>May</c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>Sep</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1734,10 +1726,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot 3'!$B$4:$B$19</c:f>
+              <c:f>'Pivot 3'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>771</c:v>
                 </c:pt>
@@ -1751,30 +1743,21 @@
                   <c:v>2494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3026</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4127</c:v>
+                  <c:v>1684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3875</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1528</c:v>
+                  <c:v>1536</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1684</c:v>
+                  <c:v>2864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3537</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2864</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1379</c:v>
                 </c:pt>
               </c:numCache>
@@ -2451,16 +2434,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>140.87387695413258</c:v>
+                  <c:v>136.50595386143647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.368246516667</c:v>
+                  <c:v>106.84509125545883</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.4410334877862</c:v>
+                  <c:v>157.61176084289789</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.97659894637712</c:v>
+                  <c:v>111.05339553555136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,16 +2972,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1152805</c:v>
+                  <c:v>800360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604575</c:v>
+                  <c:v>341435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>703282</c:v>
+                  <c:v>446302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>910416</c:v>
+                  <c:v>561014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,28 +3658,28 @@
                   <c:v>Jane Smith</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>John Doe</c:v>
+                  <c:v>Laura Black</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mike Brown</c:v>
+                  <c:v>John Doe</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Andrew Blue</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Laura Black</c:v>
+                  <c:v>Mike Brown</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Emily Davis</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Chris Green</c:v>
+                  <c:v>David White</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>David White</c:v>
+                  <c:v>Sarah Lee</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sarah Lee</c:v>
+                  <c:v>Chris Green</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3708,34 +3691,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4318,9 +4301,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Pivot 3'!$A$4:$A$19</c:f>
+              <c:f>'Pivot 3'!$A$4:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sep</c:v>
@@ -4335,30 +4318,21 @@
                     <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Jan</c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Feb</c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Mar</c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Apr</c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>May</c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>Sep</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4375,10 +4349,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot 3'!$B$4:$B$19</c:f>
+              <c:f>'Pivot 3'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>771</c:v>
                 </c:pt>
@@ -4392,30 +4366,21 @@
                   <c:v>2494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3026</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4127</c:v>
+                  <c:v>1684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3875</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1528</c:v>
+                  <c:v>1536</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1684</c:v>
+                  <c:v>2864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3537</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2864</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1379</c:v>
                 </c:pt>
               </c:numCache>
@@ -5366,16 +5331,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>140.87387695413258</c:v>
+                  <c:v>136.50595386143647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.368246516667</c:v>
+                  <c:v>106.84509125545883</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.4410334877862</c:v>
+                  <c:v>157.61176084289789</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.97659894637712</c:v>
+                  <c:v>111.05339553555136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13663,7 +13628,7 @@
     <pivotField showAll="0">
       <items count="7">
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -13929,7 +13894,7 @@
     <pivotField showAll="0">
       <items count="7">
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -13958,28 +13923,28 @@
       <x v="4"/>
     </i>
     <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -14025,7 +13990,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D064263-4D1C-40D7-BF76-F231D23CFDA0}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
@@ -14185,7 +14150,7 @@
     <pivotField showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
+        <item h="1" sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
@@ -14207,7 +14172,7 @@
     <field x="13"/>
     <field x="11"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="13">
     <i>
       <x v="1"/>
     </i>
@@ -14225,15 +14190,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i r="1">
       <x v="4"/>
@@ -14447,7 +14403,7 @@
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="6">
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -15123,7 +15079,7 @@
   <data>
     <tabular pivotCacheId="984892114">
       <items count="6">
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
@@ -15495,7 +15451,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1152805</v>
+        <v>800360</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15503,7 +15459,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="5">
-        <v>604575</v>
+        <v>341435</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15511,7 +15467,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5">
-        <v>703282</v>
+        <v>446302</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15519,7 +15475,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="5">
-        <v>910416</v>
+        <v>561014</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15527,7 +15483,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="5">
-        <v>3371078</v>
+        <v>2149111</v>
       </c>
     </row>
   </sheetData>
@@ -15562,88 +15518,88 @@
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>37</v>
+      <c r="B4" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
-        <v>18</v>
+      <c r="B5" s="13">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
         <v>8</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="13">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>10</v>
+      <c r="B8" s="13">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>6</v>
+      <c r="B10" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>120</v>
+      <c r="B14" s="13">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -15654,7 +15610,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F3A811-0A1A-4FEF-9853-B1FFC57DE7E8}">
-  <dimension ref="A3:B19"/>
+  <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
@@ -15678,7 +15634,7 @@
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>11171</v>
       </c>
     </row>
@@ -15686,7 +15642,7 @@
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>771</v>
       </c>
     </row>
@@ -15694,7 +15650,7 @@
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>3103</v>
       </c>
     </row>
@@ -15702,7 +15658,7 @@
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>4803</v>
       </c>
     </row>
@@ -15710,7 +15666,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>2494</v>
       </c>
     </row>
@@ -15718,88 +15674,64 @@
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B9">
-        <v>23556</v>
+      <c r="B9" s="13">
+        <v>12528</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>3026</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1528</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>4127</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1684</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>3875</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3537</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
-        <v>1528</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1536</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>1684</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2864</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>3537</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1379</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19">
-        <v>34727</v>
+      <c r="B16" s="13">
+        <v>23699</v>
       </c>
     </row>
   </sheetData>
@@ -15835,40 +15767,40 @@
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>140.87387695413258</v>
+      <c r="B4" s="13">
+        <v>136.50595386143647</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
-        <v>108.368246516667</v>
+      <c r="B5" s="13">
+        <v>106.84509125545883</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>180.4410334877862</v>
+      <c r="B6" s="13">
+        <v>157.61176084289789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>108.97659894637712</v>
+      <c r="B7" s="13">
+        <v>111.05339553555136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
-        <v>132.39235089555021</v>
+      <c r="B8" s="13">
+        <v>128.2240455479031</v>
       </c>
     </row>
   </sheetData>
@@ -15881,7 +15813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574C4D0-95C0-4CFE-87E6-C28A87893F6E}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="77" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -16289,8 +16221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
